--- a/spec/models/DE/Air/EGRVlv/EGRVlv_VDPosGov/EGRVlv_VDPosGovInspectReport.xlsx
+++ b/spec/models/DE/Air/EGRVlv/EGRVlv_VDPosGov/EGRVlv_VDPosGovInspectReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T3NSE\trunk\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_VDPosGov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\T3\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_VDPosGov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54984E3-9FFE-4928-A30D-676D852C93E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C8198B-F168-4257-A39E-0E97344C67A3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>检查项目</t>
   </si>
@@ -883,7 +883,9 @@
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
